--- a/Chain.of.Heroes/Tools/ExcelParser/dnjsqhs.xlsx
+++ b/Chain.of.Heroes/Tools/ExcelParser/dnjsqhs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\ExcelParser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F3630C-79F6-4385-B847-18C828EEA307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E468F4C1-85A8-4A35-A5D3-A7B7C56DE046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Chain.of.Heroes/Tools/ExcelParser/dnjsqhs.xlsx
+++ b/Chain.of.Heroes/Tools/ExcelParser/dnjsqhs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\ExcelParser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E468F4C1-85A8-4A35-A5D3-A7B7C56DE046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7749A028-09EE-458D-8DA6-65DDEAFB17F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -882,7 +882,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
